--- a/papyrus.teszt/excel/prop3.xlsx
+++ b/papyrus.teszt/excel/prop3.xlsx
@@ -1,28 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thorvath\Documents\tibor_horvath_ELTE\repository\szakdolgozat\papyrus.teszt\excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B15BEF96-8986-4408-8907-44563F8AEBE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Adattípusok" r:id="rId3" sheetId="1"/>
-    <sheet name="Asszociációk" r:id="rId4" sheetId="2"/>
-    <sheet name="Enumerációk" r:id="rId5" sheetId="3"/>
-    <sheet name="Interfészek" r:id="rId6" sheetId="4"/>
-    <sheet name="Osztályok" r:id="rId7" sheetId="5"/>
-    <sheet name="ChildInterface" r:id="rId8" sheetId="6"/>
-    <sheet name="Interfaaaaac" r:id="rId9" sheetId="7"/>
-    <sheet name="Interface10" r:id="rId10" sheetId="8"/>
-    <sheet name="ParentInterface" r:id="rId11" sheetId="9"/>
-    <sheet name="Class3" r:id="rId12" sheetId="10"/>
-    <sheet name="Paaaarent" r:id="rId13" sheetId="11"/>
+    <sheet name="Adattípusok" sheetId="1" r:id="rId1"/>
+    <sheet name="Asszociációk" sheetId="2" r:id="rId2"/>
+    <sheet name="Enumerációk" sheetId="3" r:id="rId3"/>
+    <sheet name="Interfészek" sheetId="4" r:id="rId4"/>
+    <sheet name="Osztályok" sheetId="5" r:id="rId5"/>
+    <sheet name="ChildInterface" sheetId="6" r:id="rId6"/>
+    <sheet name="Interfaaaaac" sheetId="7" r:id="rId7"/>
+    <sheet name="Interface10" sheetId="8" r:id="rId8"/>
+    <sheet name="ParentInterface" sheetId="9" r:id="rId9"/>
+    <sheet name="Class3" sheetId="10" r:id="rId10"/>
+    <sheet name="Paaaarent" sheetId="11" r:id="rId11"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="81">
   <si>
     <t>XmiId</t>
   </si>
@@ -165,12 +173,6 @@
     <t>Típus</t>
   </si>
   <si>
-    <t>_6xIuUE1cEeyZ2YO7BIWEHg</t>
-  </si>
-  <si>
-    <t>Property2</t>
-  </si>
-  <si>
     <t>Real</t>
   </si>
   <si>
@@ -247,12 +249,6 @@
   </si>
   <si>
     <t>classProp2</t>
-  </si>
-  <si>
-    <t>_8hzasE1cEeyZ2YO7BIWEHg</t>
-  </si>
-  <si>
-    <t>classProp1</t>
   </si>
   <si>
     <t>_OTPiEFYbEeyzWIy-BpzvfQ</t>
@@ -282,100 +278,99 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="18">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
     </font>
   </fonts>
   <fills count="2">
@@ -383,7 +378,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -400,112 +395,422 @@
   </cellStyleXfs>
   <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normál" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-téma">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.36328125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="10.90625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="1">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="27.77734375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="20.5390625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="11.0546875" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="8.36328125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="8.76171875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="17.10546875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="15.76953125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.55859375" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" width="6.37890625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="14">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B1" t="s" s="14">
+      <c r="B1" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="C1" t="s" s="14">
+      <c r="C1" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="D1" t="s" s="14">
+      <c r="D1" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="E1" t="s" s="14">
+      <c r="E1" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="F1" t="s" s="14">
+      <c r="F1" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="14"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" t="s">
         <v>72</v>
-      </c>
-      <c r="G1" t="s" s="14">
-        <v>28</v>
-      </c>
-      <c r="H1" s="14"/>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C2" t="s">
-        <v>74</v>
       </c>
       <c r="D2" t="s">
         <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F2" t="s">
         <v>40</v>
@@ -513,23 +818,22 @@
       <c r="G2" t="s">
         <v>23</v>
       </c>
-      <c r="H2"/>
-    </row>
-    <row r="3">
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D3" t="s">
         <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="F3" t="s">
         <v>40</v>
@@ -537,178 +841,152 @@
       <c r="G3" t="s">
         <v>23</v>
       </c>
-      <c r="H3"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" t="s">
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="I5" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="J5" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="K5" s="15"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" t="s">
         <v>77</v>
       </c>
-      <c r="C4" t="s">
+      <c r="F6" t="s">
+        <v>77</v>
+      </c>
+      <c r="G6" t="s">
+        <v>62</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
         <v>78</v>
       </c>
-      <c r="D4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" t="s">
-        <v>40</v>
-      </c>
-      <c r="G4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="15">
-        <v>56</v>
-      </c>
-      <c r="B6" t="s" s="15">
-        <v>45</v>
-      </c>
-      <c r="C6" t="s" s="15">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s" s="15">
-        <v>26</v>
-      </c>
-      <c r="E6" t="s" s="15">
-        <v>72</v>
-      </c>
-      <c r="F6" t="s" s="15">
-        <v>57</v>
-      </c>
-      <c r="G6" t="s" s="15">
-        <v>58</v>
-      </c>
-      <c r="H6" t="s" s="15">
-        <v>59</v>
-      </c>
-      <c r="I6" t="s" s="15">
-        <v>60</v>
-      </c>
-      <c r="J6" t="s" s="15">
-        <v>28</v>
-      </c>
-      <c r="K6" s="15"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="J6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>78</v>
+      </c>
+      <c r="J7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H8" t="s">
         <v>79</v>
       </c>
-      <c r="C7" t="s">
+      <c r="I8" t="s">
         <v>80</v>
       </c>
-      <c r="D7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" t="s">
-        <v>81</v>
-      </c>
-      <c r="F7" t="s">
-        <v>81</v>
-      </c>
-      <c r="G7" t="s">
-        <v>64</v>
-      </c>
-      <c r="H7" t="s">
-        <v>49</v>
-      </c>
-      <c r="I7" t="s">
-        <v>82</v>
-      </c>
-      <c r="J7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K7"/>
-    </row>
-    <row r="8">
-      <c r="H8" t="s">
-        <v>49</v>
-      </c>
-      <c r="I8" t="s">
-        <v>82</v>
-      </c>
       <c r="J8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9">
-      <c r="H9" t="s">
-        <v>83</v>
-      </c>
-      <c r="I9" t="s">
-        <v>84</v>
-      </c>
-      <c r="J9" t="s">
-        <v>23</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="26.3828125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="20.5390625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="11.0546875" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="6.16796875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="8.76171875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="17.10546875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="15.76953125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.55859375" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" width="6.37890625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="16">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="B1" t="s" s="16">
+      <c r="B1" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="C1" t="s" s="16">
+      <c r="C1" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D1" t="s" s="16">
+      <c r="D1" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="E1" t="s" s="16">
+      <c r="E1" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="F1" t="s" s="16">
-        <v>72</v>
-      </c>
-      <c r="G1" t="s" s="16">
+      <c r="F1" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="G1" s="16" t="s">
         <v>28</v>
       </c>
       <c r="H1" s="16"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D2" t="s">
         <v>30</v>
@@ -722,167 +1000,163 @@
       <c r="G2" t="s">
         <v>23</v>
       </c>
-      <c r="H2"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="17">
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="G4" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="B4" t="s" s="17">
-        <v>45</v>
-      </c>
-      <c r="C4" t="s" s="17">
-        <v>25</v>
-      </c>
-      <c r="D4" t="s" s="17">
-        <v>26</v>
-      </c>
-      <c r="E4" t="s" s="17">
-        <v>72</v>
-      </c>
-      <c r="F4" t="s" s="17">
+      <c r="H4" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="G4" t="s" s="17">
+      <c r="I4" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="H4" t="s" s="17">
-        <v>59</v>
-      </c>
-      <c r="I4" t="s" s="17">
-        <v>60</v>
-      </c>
-      <c r="J4" t="s" s="17">
+      <c r="J4" s="17" t="s">
         <v>28</v>
       </c>
       <c r="K4" s="17"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C5" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D5" t="s">
         <v>30</v>
       </c>
       <c r="E5" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F5" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="J5" t="s">
         <v>23</v>
       </c>
-      <c r="K5"/>
-    </row>
-    <row r="6">
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="H6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="J6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="H7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="I7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="J7" t="s">
         <v>23</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.19921875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="13.58984375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="10.16015625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="10.12890625" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="6.69921875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="6.7421875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.58984375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="10.16015625" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" width="10.12890625" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="12" max="12" width="6.69921875" customWidth="true" bestFit="true"/>
-    <col min="13" max="13" width="6.7421875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="27.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H1" t="s" s="2">
+      <c r="H1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I1" t="s" s="2">
+      <c r="I1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J1" t="s" s="2">
+      <c r="J1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="K1" t="s" s="2">
+      <c r="K1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L1" t="s" s="2">
+      <c r="L1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="M1" t="s" s="2">
+      <c r="M1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="N1" s="2"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -898,11 +1172,11 @@
       <c r="E2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>1.0</v>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
       </c>
       <c r="H2" t="s">
         <v>13</v>
@@ -916,15 +1190,14 @@
       <c r="K2" t="s">
         <v>12</v>
       </c>
-      <c r="L2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="N2"/>
-    </row>
-    <row r="3">
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -940,11 +1213,11 @@
       <c r="E3" t="s">
         <v>12</v>
       </c>
-      <c r="F3" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>1.0</v>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
       </c>
       <c r="H3" t="s">
         <v>9</v>
@@ -958,54 +1231,52 @@
       <c r="K3" t="s">
         <v>12</v>
       </c>
-      <c r="L3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="N3"/>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.48828125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="13.76953125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="19.35546875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="28.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B1" t="s" s="3">
+      <c r="B1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C1" t="s" s="3">
+      <c r="C1" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D1" s="3"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>20</v>
       </c>
       <c r="B2" t="s">
         <v>21</v>
       </c>
-      <c r="C2"/>
-    </row>
-    <row r="3">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -1015,47 +1286,46 @@
       <c r="C3" t="s">
         <v>24</v>
       </c>
-      <c r="D3"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.3515625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="15.04296875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.0546875" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="15.04296875" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="6.37890625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B1" t="s" s="4">
+      <c r="B1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C1" t="s" s="4">
+      <c r="C1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D1" t="s" s="4">
+      <c r="D1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E1" t="s" s="4">
+      <c r="E1" s="4" t="s">
         <v>28</v>
       </c>
       <c r="F1" s="4"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -1071,9 +1341,8 @@
       <c r="E2" t="s">
         <v>23</v>
       </c>
-      <c r="F2"/>
-    </row>
-    <row r="3">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -1089,9 +1358,8 @@
       <c r="E3" t="s">
         <v>23</v>
       </c>
-      <c r="F3"/>
-    </row>
-    <row r="4">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>34</v>
       </c>
@@ -1107,9 +1375,8 @@
       <c r="E4" t="s">
         <v>23</v>
       </c>
-      <c r="F4"/>
-    </row>
-    <row r="5">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>36</v>
       </c>
@@ -1125,55 +1392,54 @@
       <c r="E5" t="s">
         <v>23</v>
       </c>
-      <c r="F5"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.99609375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="10.14453125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.0546875" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="9.76953125" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="12.42578125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="14.375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="6.37890625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="27" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="5">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B1" t="s" s="5">
+      <c r="B1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C1" t="s" s="5">
+      <c r="C1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D1" t="s" s="5">
+      <c r="D1" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E1" t="s" s="5">
+      <c r="E1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F1" t="s" s="5">
+      <c r="F1" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="G1" t="s" s="5">
+      <c r="G1" s="5" t="s">
         <v>28</v>
       </c>
       <c r="H1" s="5"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>39</v>
       </c>
@@ -1195,14 +1461,13 @@
       <c r="G2" t="s">
         <v>23</v>
       </c>
-      <c r="H2"/>
-    </row>
-    <row r="3">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>42</v>
       </c>
@@ -1224,551 +1489,527 @@
       <c r="G4" t="s">
         <v>23</v>
       </c>
-      <c r="H4"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="27.58203125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="17.203125" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="11.0546875" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="8.76171875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="17.10546875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="15.76953125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.55859375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="6.37890625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="6">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B1" t="s" s="6">
+      <c r="B1" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C1" t="s" s="6">
+      <c r="C1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D1" t="s" s="6">
+      <c r="D1" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="E1" t="s" s="6">
+      <c r="E1" s="6" t="s">
         <v>28</v>
       </c>
       <c r="F1" s="6"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>23</v>
       </c>
       <c r="B2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" s="7"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" t="s">
+        <v>62</v>
+      </c>
+      <c r="G6" t="s">
+        <v>62</v>
+      </c>
+      <c r="H6" t="s">
+        <v>63</v>
+      </c>
+      <c r="I6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G7" t="s">
+        <v>62</v>
+      </c>
+      <c r="H7" t="s">
+        <v>63</v>
+      </c>
+      <c r="I7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G8" t="s">
         <v>47</v>
       </c>
-      <c r="C2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="7">
-        <v>56</v>
-      </c>
-      <c r="B6" t="s" s="7">
-        <v>45</v>
-      </c>
-      <c r="C6" t="s" s="7">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s" s="7">
-        <v>26</v>
-      </c>
-      <c r="E6" t="s" s="7">
-        <v>57</v>
-      </c>
-      <c r="F6" t="s" s="7">
-        <v>58</v>
-      </c>
-      <c r="G6" t="s" s="7">
-        <v>59</v>
-      </c>
-      <c r="H6" t="s" s="7">
-        <v>60</v>
-      </c>
-      <c r="I6" t="s" s="7">
-        <v>28</v>
-      </c>
-      <c r="J6" s="7"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="H8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G9" t="s">
         <v>62</v>
       </c>
-      <c r="D7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="H9" t="s">
+        <v>65</v>
+      </c>
+      <c r="I9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" t="s">
         <v>40</v>
       </c>
-      <c r="F7" t="s">
-        <v>64</v>
-      </c>
-      <c r="G7" t="s">
-        <v>64</v>
-      </c>
-      <c r="H7" t="s">
-        <v>65</v>
-      </c>
-      <c r="I7" t="s">
-        <v>23</v>
-      </c>
-      <c r="J7"/>
-    </row>
-    <row r="8">
-      <c r="G8" t="s">
-        <v>64</v>
-      </c>
-      <c r="H8" t="s">
-        <v>65</v>
-      </c>
-      <c r="I8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="G9" t="s">
-        <v>49</v>
-      </c>
-      <c r="H9" t="s">
-        <v>66</v>
-      </c>
-      <c r="I9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10">
+      <c r="F10" t="s">
+        <v>23</v>
+      </c>
       <c r="G10" t="s">
-        <v>64</v>
+        <v>23</v>
       </c>
       <c r="H10" t="s">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="I10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" t="s">
-        <v>68</v>
-      </c>
-      <c r="C11" t="s">
-        <v>69</v>
-      </c>
-      <c r="D11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" t="s">
-        <v>23</v>
-      </c>
-      <c r="G11" t="s">
-        <v>23</v>
-      </c>
-      <c r="H11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I11" t="s">
-        <v>23</v>
-      </c>
-      <c r="J11"/>
-    </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="7.0703125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="4.65234375" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="11.0546875" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="8.76171875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="17.10546875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="15.76953125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.55859375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="6.37890625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="8">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B1" t="s" s="8">
+      <c r="B1" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C1" t="s" s="8">
+      <c r="C1" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D1" t="s" s="8">
+      <c r="D1" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="E1" t="s" s="8">
+      <c r="E1" s="8" t="s">
         <v>28</v>
       </c>
       <c r="F1" s="8"/>
     </row>
-    <row r="3">
-      <c r="A3" t="s" s="9">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="B3" t="s" s="9">
-        <v>45</v>
-      </c>
-      <c r="C3" t="s" s="9">
-        <v>25</v>
-      </c>
-      <c r="D3" t="s" s="9">
-        <v>26</v>
-      </c>
-      <c r="E3" t="s" s="9">
+      <c r="G3" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="F3" t="s" s="9">
+      <c r="H3" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="G3" t="s" s="9">
-        <v>59</v>
-      </c>
-      <c r="H3" t="s" s="9">
-        <v>60</v>
-      </c>
-      <c r="I3" t="s" s="9">
+      <c r="I3" s="9" t="s">
         <v>28</v>
       </c>
       <c r="J3" s="9"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="7.0703125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="4.65234375" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="11.0546875" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="8.76171875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="17.10546875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="15.76953125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.55859375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="6.37890625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="B1" t="s" s="10">
+      <c r="B1" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="C1" t="s" s="10">
+      <c r="C1" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D1" t="s" s="10">
+      <c r="D1" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E1" t="s" s="10">
+      <c r="E1" s="10" t="s">
         <v>28</v>
       </c>
       <c r="F1" s="10"/>
     </row>
-    <row r="3">
-      <c r="A3" t="s" s="11">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="B3" t="s" s="11">
-        <v>45</v>
-      </c>
-      <c r="C3" t="s" s="11">
-        <v>25</v>
-      </c>
-      <c r="D3" t="s" s="11">
-        <v>26</v>
-      </c>
-      <c r="E3" t="s" s="11">
+      <c r="G3" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="F3" t="s" s="11">
+      <c r="H3" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="G3" t="s" s="11">
-        <v>59</v>
-      </c>
-      <c r="H3" t="s" s="11">
-        <v>60</v>
-      </c>
-      <c r="I3" t="s" s="11">
+      <c r="I3" s="11" t="s">
         <v>28</v>
       </c>
       <c r="J3" s="11"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="25.3046875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="17.203125" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="11.0546875" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="8.76171875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="17.10546875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="15.76953125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.55859375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="6.37890625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="12">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="B1" t="s" s="12">
+      <c r="B1" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="C1" t="s" s="12">
+      <c r="C1" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D1" t="s" s="12">
+      <c r="D1" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="E1" t="s" s="12">
+      <c r="E1" s="12" t="s">
         <v>28</v>
       </c>
       <c r="F1" s="12"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="E2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="13">
+      <c r="F5" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="B5" t="s" s="13">
-        <v>45</v>
-      </c>
-      <c r="C5" t="s" s="13">
-        <v>25</v>
-      </c>
-      <c r="D5" t="s" s="13">
-        <v>26</v>
-      </c>
-      <c r="E5" t="s" s="13">
+      <c r="G5" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="F5" t="s" s="13">
+      <c r="H5" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="G5" t="s" s="13">
+      <c r="I5" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" s="13"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
         <v>59</v>
       </c>
-      <c r="H5" t="s" s="13">
+      <c r="C6" t="s">
         <v>60</v>
       </c>
-      <c r="I5" t="s" s="13">
-        <v>28</v>
-      </c>
-      <c r="J5" s="13"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="D6" t="s">
         <v>61</v>
-      </c>
-      <c r="C6" t="s">
-        <v>62</v>
-      </c>
-      <c r="D6" t="s">
-        <v>63</v>
       </c>
       <c r="E6" t="s">
         <v>40</v>
       </c>
       <c r="F6" t="s">
+        <v>62</v>
+      </c>
+      <c r="G6" t="s">
+        <v>62</v>
+      </c>
+      <c r="H6" t="s">
+        <v>63</v>
+      </c>
+      <c r="I6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G7" t="s">
+        <v>62</v>
+      </c>
+      <c r="H7" t="s">
+        <v>63</v>
+      </c>
+      <c r="I7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G8" t="s">
+        <v>47</v>
+      </c>
+      <c r="H8" t="s">
         <v>64</v>
       </c>
-      <c r="G6" t="s">
-        <v>64</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="I8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G9" t="s">
+        <v>62</v>
+      </c>
+      <c r="H9" t="s">
         <v>65</v>
       </c>
-      <c r="I6" t="s">
-        <v>23</v>
-      </c>
-      <c r="J6"/>
-    </row>
-    <row r="7">
-      <c r="G7" t="s">
-        <v>64</v>
-      </c>
-      <c r="H7" t="s">
-        <v>65</v>
-      </c>
-      <c r="I7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="G8" t="s">
-        <v>49</v>
-      </c>
-      <c r="H8" t="s">
+      <c r="I9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
         <v>66</v>
       </c>
-      <c r="I8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="G9" t="s">
-        <v>64</v>
-      </c>
-      <c r="H9" t="s">
+      <c r="C10" t="s">
         <v>67</v>
-      </c>
-      <c r="I9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" t="s">
-        <v>68</v>
-      </c>
-      <c r="C10" t="s">
-        <v>69</v>
       </c>
       <c r="D10" t="s">
         <v>30</v>
@@ -1788,9 +2029,8 @@
       <c r="I10" t="s">
         <v>23</v>
       </c>
-      <c r="J10"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>